--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/83.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/83.xlsx
@@ -479,13 +479,13 @@
         <v>-8.611955370327539</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.87624125906267</v>
+        <v>-10.85168377757016</v>
       </c>
       <c r="F2" t="n">
-        <v>5.74887548195028</v>
+        <v>5.757626804242058</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.56855812696363</v>
+        <v>-19.56043748655769</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.24105623662857</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.21455564524632</v>
+        <v>-11.19214932677525</v>
       </c>
       <c r="F3" t="n">
-        <v>5.689239376187651</v>
+        <v>5.696685333645963</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.02232405674382</v>
+        <v>-19.015264330828</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.739528628378244</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.28810586455219</v>
+        <v>-11.2659977755</v>
       </c>
       <c r="F4" t="n">
-        <v>5.510159943659423</v>
+        <v>5.517068110362374</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.21087114200762</v>
+        <v>-18.20307317605489</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.256101213926447</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.75928390135111</v>
+        <v>-11.73842250904999</v>
       </c>
       <c r="F5" t="n">
-        <v>5.771990706417053</v>
+        <v>5.778209523151769</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.65117763588319</v>
+        <v>-17.6402262605013</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.790193802376643</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.14811150648373</v>
+        <v>-12.13082397820232</v>
       </c>
       <c r="F6" t="n">
-        <v>5.638652822135683</v>
+        <v>5.644060063730491</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.26508298558918</v>
+        <v>-17.25526585980042</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.386586070067795</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.02698871492156</v>
+        <v>-13.0099749710247</v>
       </c>
       <c r="F7" t="n">
-        <v>5.670768708244447</v>
+        <v>5.676713740594615</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.45199225355256</v>
+        <v>-16.44131955156208</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.06234612284084865</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.87904972069436</v>
+        <v>-13.86474937560864</v>
       </c>
       <c r="F8" t="n">
-        <v>5.928629597426141</v>
+        <v>5.934936416284462</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.07324578057953</v>
+        <v>-16.06271974879506</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>1.13461016585324</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.43208928847292</v>
+        <v>-14.41691870016488</v>
       </c>
       <c r="F9" t="n">
-        <v>6.085894281314195</v>
+        <v>6.093687358260057</v>
       </c>
       <c r="G9" t="n">
-        <v>-16.02914204963309</v>
+        <v>-16.01684130835593</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>2.184351979789902</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.18723551112286</v>
+        <v>-15.17294494405087</v>
       </c>
       <c r="F10" t="n">
-        <v>6.442904229756925</v>
+        <v>6.451396434684757</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.34975587739285</v>
+        <v>-15.34031520513284</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>3.046629469562442</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.4964700844621</v>
+        <v>-15.48082526248797</v>
       </c>
       <c r="F11" t="n">
-        <v>6.363550759300028</v>
+        <v>6.371671399705974</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.69451162106144</v>
+        <v>-14.68277800458085</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>3.695616844521587</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.5591641730822</v>
+        <v>-16.54534295066944</v>
       </c>
       <c r="F12" t="n">
-        <v>6.765940469481463</v>
+        <v>6.77276063406081</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.38224097445785</v>
+        <v>-14.36820463574294</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>4.120312556932473</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.1164376208075</v>
+        <v>-17.10217638777671</v>
       </c>
       <c r="F13" t="n">
-        <v>7.056909713165907</v>
+        <v>7.0640036621298</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.86052038466876</v>
+        <v>-13.8455453566354</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>4.312121762736745</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.40707676559065</v>
+        <v>-18.39213107159849</v>
       </c>
       <c r="F14" t="n">
-        <v>7.127624308488964</v>
+        <v>7.134038685498357</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.29190444101221</v>
+        <v>-13.27695874702005</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.292010033295858</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.56647305647267</v>
+        <v>-18.55232427059982</v>
       </c>
       <c r="F15" t="n">
-        <v>7.160141093160815</v>
+        <v>7.164379862114431</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.71127620748366</v>
+        <v>-12.69580250074987</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>4.094838479314676</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.77834052261608</v>
+        <v>-19.76383483924195</v>
       </c>
       <c r="F16" t="n">
-        <v>7.188145324494505</v>
+        <v>7.192252090262713</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.6583233741081</v>
+        <v>-12.64411103114598</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.765564259100739</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.81160767890422</v>
+        <v>-20.79679398809747</v>
       </c>
       <c r="F17" t="n">
-        <v>7.63386141353054</v>
+        <v>7.639513105468693</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.2662885804708</v>
+        <v>-12.24876637985977</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.358707774861192</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.45141734055678</v>
+        <v>-21.43548895618438</v>
       </c>
       <c r="F18" t="n">
-        <v>7.893780574603205</v>
+        <v>7.898733138559391</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.59890492008884</v>
+        <v>-11.58292275664089</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.924170456328803</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.14529452915055</v>
+        <v>-22.12836878737729</v>
       </c>
       <c r="F19" t="n">
-        <v>7.748953524184585</v>
+        <v>7.754243429614586</v>
       </c>
       <c r="G19" t="n">
-        <v>-10.9949121227433</v>
+        <v>-10.97611389134001</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.504851361696569</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.0744111721528</v>
+        <v>-23.05727520308427</v>
       </c>
       <c r="F20" t="n">
-        <v>7.731108649120345</v>
+        <v>7.737713697397547</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.29885932609375</v>
+        <v>-10.28323894915396</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.131363747110552</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.85938033669093</v>
+        <v>-23.84014698367649</v>
       </c>
       <c r="F21" t="n">
-        <v>7.98187070033128</v>
+        <v>7.986114358291761</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.743502369060279</v>
+        <v>-9.730844730281836</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.823199670222848</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.25211425831021</v>
+        <v>-24.23194221597732</v>
       </c>
       <c r="F22" t="n">
-        <v>7.897031764169705</v>
+        <v>7.903162578780815</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.150113827609077</v>
+        <v>-9.139274899385127</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.582977195501579</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.91386089377462</v>
+        <v>-24.89167458061256</v>
       </c>
       <c r="F23" t="n">
-        <v>7.914236179334378</v>
+        <v>7.92031810387682</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.465765313398924</v>
+        <v>-8.456754873743201</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.403358644015728</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.50480004278549</v>
+        <v>-25.4838897604157</v>
       </c>
       <c r="F24" t="n">
-        <v>8.275440895668922</v>
+        <v>8.279146762874042</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.062094683418358</v>
+        <v>-8.053103799790101</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.271333183852048</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.74759790181022</v>
+        <v>-25.72611071663014</v>
       </c>
       <c r="F25" t="n">
-        <v>8.020943643211664</v>
+        <v>8.026482887991879</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.767893806194884</v>
+        <v>-7.758257573660194</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.165976570702313</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.90769332067422</v>
+        <v>-25.88376652106754</v>
       </c>
       <c r="F26" t="n">
-        <v>8.082535351721058</v>
+        <v>8.08652478132446</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.237764124594696</v>
+        <v>-7.228142559080607</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.071747220644196</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.80225699858233</v>
+        <v>-25.78098981871126</v>
       </c>
       <c r="F27" t="n">
-        <v>8.111370714222122</v>
+        <v>8.115203695605784</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.01220001477584</v>
+        <v>-7.003414469435994</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9727714262094517</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.73814256252961</v>
+        <v>-25.71592202631948</v>
       </c>
       <c r="F28" t="n">
-        <v>7.888955124825561</v>
+        <v>7.893570347307929</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.02158201895345</v>
+        <v>-7.014233841632477</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8542636692507617</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.90232519113435</v>
+        <v>-25.88023665810963</v>
       </c>
       <c r="F29" t="n">
-        <v>7.530419806240353</v>
+        <v>7.534277232658349</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.640190593265415</v>
+        <v>-6.63181572450239</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7115092005351477</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.91566240186729</v>
+        <v>-25.89349075572584</v>
       </c>
       <c r="F30" t="n">
-        <v>7.506507673654272</v>
+        <v>7.51348428645336</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.870008139058486</v>
+        <v>-6.865290247431913</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.5393568118572561</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.68078473396697</v>
+        <v>-25.66049535546927</v>
       </c>
       <c r="F31" t="n">
-        <v>7.674860625116488</v>
+        <v>7.681289669146482</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.86115903662937</v>
+        <v>-6.857854067987335</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3386092760128849</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.5908758976844</v>
+        <v>-25.57013184154808</v>
       </c>
       <c r="F32" t="n">
-        <v>7.529642454148513</v>
+        <v>7.536609288933867</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.913784306544843</v>
+        <v>-6.912718503047855</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.1160829452245822</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.36180636994197</v>
+        <v>-25.34015784753527</v>
       </c>
       <c r="F33" t="n">
-        <v>7.49031528291105</v>
+        <v>7.497883465541034</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.997948559758783</v>
+        <v>-6.997405879996556</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.1225603927889252</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.15890280695126</v>
+        <v>-25.13769918416945</v>
       </c>
       <c r="F34" t="n">
-        <v>7.512364703880836</v>
+        <v>7.519644435105673</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.83924161884499</v>
+        <v>-6.840947882241544</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.366498277822426</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.87725689936203</v>
+        <v>-24.85735375240682</v>
       </c>
       <c r="F35" t="n">
-        <v>7.856428562139976</v>
+        <v>7.863336728842927</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.254264522770534</v>
+        <v>-7.254763201470959</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6052613333451085</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.47080931348105</v>
+        <v>-24.45179596577562</v>
       </c>
       <c r="F36" t="n">
-        <v>7.911977458161863</v>
+        <v>7.919198521304296</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.390183802677636</v>
+        <v>-7.388795324727432</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.8307911982963018</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.9735973151158</v>
+        <v>-23.95714091800177</v>
       </c>
       <c r="F37" t="n">
-        <v>7.89635708122207</v>
+        <v>7.904463054607415</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.345620505085706</v>
+        <v>-7.342594209835085</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.032952735909777</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.39383443580269</v>
+        <v>-23.37861495742598</v>
       </c>
       <c r="F38" t="n">
-        <v>7.661616305514015</v>
+        <v>7.669062262972327</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.284361249043262</v>
+        <v>-7.27829399152142</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.207419190875618</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.87329209666852</v>
+        <v>-22.85775483284547</v>
       </c>
       <c r="F39" t="n">
-        <v>7.596035167401219</v>
+        <v>7.604053138662959</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.479505958136172</v>
+        <v>-7.474592506234923</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.352169334038632</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.56802739690522</v>
+        <v>-22.55493952552249</v>
       </c>
       <c r="F40" t="n">
-        <v>7.472563298977281</v>
+        <v>7.481172840069918</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.46416914359466</v>
+        <v>-7.459514809057357</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.465764257908878</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.04738727763371</v>
+        <v>-22.03496431118488</v>
       </c>
       <c r="F41" t="n">
-        <v>7.555573746570631</v>
+        <v>7.563630829887306</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.862823652529771</v>
+        <v>-7.857719529360712</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.55305627611083</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.60105028472558</v>
+        <v>-21.59041669479004</v>
       </c>
       <c r="F42" t="n">
-        <v>7.61311735739422</v>
+        <v>7.621330888930637</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.916852067416048</v>
+        <v>-7.909562558177479</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.618434621486091</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.29171304224214</v>
+        <v>-21.28137279271861</v>
       </c>
       <c r="F43" t="n">
-        <v>7.465762690425403</v>
+        <v>7.472861528396163</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.118787607047103</v>
+        <v>-8.11096519606004</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.668229933209021</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.39340692051519</v>
+        <v>-20.38267555044231</v>
       </c>
       <c r="F44" t="n">
-        <v>7.726713431946989</v>
+        <v>7.73422294649457</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.1174137961175</v>
+        <v>-8.107767785569077</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.711251715950292</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.52369171094595</v>
+        <v>-19.51388436317092</v>
       </c>
       <c r="F45" t="n">
-        <v>7.869770661879786</v>
+        <v>7.878732211466842</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.254139762157644</v>
+        <v>-8.24508043243325</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.753197697063286</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.10500694087709</v>
+        <v>-19.09662229410033</v>
       </c>
       <c r="F46" t="n">
-        <v>7.657485094711473</v>
+        <v>7.66444704048996</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.171833331553131</v>
+        <v>-8.162084651860502</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.800751986091577</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.91524991735152</v>
+        <v>-18.9082195254769</v>
       </c>
       <c r="F47" t="n">
-        <v>7.913923282894896</v>
+        <v>7.920479441103429</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.577293338046989</v>
+        <v>-8.568439346611004</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.858684364421284</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.1265406625602</v>
+        <v>-18.11873291859374</v>
       </c>
       <c r="F48" t="n">
-        <v>7.879001106844522</v>
+        <v>7.884897249126022</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.538880411093638</v>
+        <v>-8.528017037835353</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.927380969339842</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.57902567254126</v>
+        <v>-17.5718388324469</v>
       </c>
       <c r="F49" t="n">
-        <v>7.880242914588719</v>
+        <v>7.887243972422141</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.787721082605874</v>
+        <v>-8.775870129960472</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.008906146961515</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.13779769180906</v>
+        <v>-17.13156909706061</v>
       </c>
       <c r="F50" t="n">
-        <v>7.755607462530456</v>
+        <v>7.763019196940698</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.456517665972372</v>
+        <v>-9.446255640558718</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.102964987646053</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.60112651902093</v>
+        <v>-16.59692686212225</v>
       </c>
       <c r="F51" t="n">
-        <v>7.834252026991649</v>
+        <v>7.842622006747808</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.609186683405525</v>
+        <v>-9.594260545440834</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.207446207417483</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.91685133991378</v>
+        <v>-15.91165432561425</v>
       </c>
       <c r="F52" t="n">
-        <v>7.768416660521773</v>
+        <v>7.779177364635853</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.8541797065135</v>
+        <v>-9.842123415579687</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.32230805186213</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.73485805929288</v>
+        <v>-15.73285356647744</v>
       </c>
       <c r="F53" t="n">
-        <v>7.82545670363807</v>
+        <v>7.833660457160753</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.30720486081557</v>
+        <v>-10.29442010785859</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.444783695000626</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.33352926360156</v>
+        <v>-15.33281546859899</v>
       </c>
       <c r="F54" t="n">
-        <v>7.789610505289849</v>
+        <v>7.799564523270888</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.54301632902748</v>
+        <v>-10.53064714165419</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.574230775531254</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.76325105761027</v>
+        <v>-14.7620190278798</v>
       </c>
       <c r="F55" t="n">
-        <v>7.847139449092837</v>
+        <v>7.856267224913368</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.07772701006197</v>
+        <v>-11.06405734686208</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.710748188790256</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.61856089938392</v>
+        <v>-14.6181355557865</v>
       </c>
       <c r="F56" t="n">
-        <v>7.59408445366132</v>
+        <v>7.603549570955667</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.47464592155933</v>
+        <v>-11.46193450370535</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.850818930969361</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.47260448837904</v>
+        <v>-14.47193469443827</v>
       </c>
       <c r="F57" t="n">
-        <v>7.635997909531381</v>
+        <v>7.646274601965636</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.14464031160822</v>
+        <v>-12.13147910512248</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.994465539611318</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.99996952753377</v>
+        <v>-13.99936817968914</v>
       </c>
       <c r="F58" t="n">
-        <v>7.331652343059059</v>
+        <v>7.339332972846982</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.35373335729244</v>
+        <v>-12.341149053617</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.140195098141334</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.89202025591229</v>
+        <v>-13.89139935204019</v>
       </c>
       <c r="F59" t="n">
-        <v>7.573257284408262</v>
+        <v>7.583284637492304</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.29123718251266</v>
+        <v>-12.27930311675052</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.284927542203425</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.25390707964255</v>
+        <v>-13.25522711149662</v>
       </c>
       <c r="F60" t="n">
-        <v>7.463455079184219</v>
+        <v>7.473829551755813</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.46183418812679</v>
+        <v>-12.45020812979727</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.428202837595065</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.92986859351029</v>
+        <v>-12.93106151118582</v>
       </c>
       <c r="F61" t="n">
-        <v>7.263235580963451</v>
+        <v>7.270265972838075</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.55304838924283</v>
+        <v>-12.54061564478026</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.565875533266051</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.88686977811578</v>
+        <v>-12.88774491034495</v>
       </c>
       <c r="F62" t="n">
-        <v>7.435763744290012</v>
+        <v>7.444495510554323</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.8570468362276</v>
+        <v>-12.84724437745943</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.696916664173749</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.89229657573805</v>
+        <v>-12.89172456193462</v>
       </c>
       <c r="F63" t="n">
-        <v>7.473907775865683</v>
+        <v>7.482189753498237</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.82545896286046</v>
+        <v>-12.81299688435669</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.821338719090949</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.21951780534067</v>
+        <v>-13.21725419516129</v>
       </c>
       <c r="F64" t="n">
-        <v>7.282718273328108</v>
+        <v>7.291117587125467</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.07407962906368</v>
+        <v>-13.0638958277599</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.936538045659318</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.13239081396538</v>
+        <v>-13.13165746293534</v>
       </c>
       <c r="F65" t="n">
-        <v>7.455114433469262</v>
+        <v>7.465288456759312</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.14226171882968</v>
+        <v>-13.13194591434049</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.044038046837978</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.05828813688355</v>
+        <v>-13.05797524044407</v>
       </c>
       <c r="F66" t="n">
-        <v>7.249512138688021</v>
+        <v>7.259950168348884</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.43221404908581</v>
+        <v>-13.42314494134768</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.144648451615933</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.38796853694022</v>
+        <v>-13.38472712538746</v>
       </c>
       <c r="F67" t="n">
-        <v>7.181696724437043</v>
+        <v>7.19141607008847</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.41470651549538</v>
+        <v>-13.40444937908859</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.236830469277823</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.25373107539534</v>
+        <v>-13.25164835847004</v>
       </c>
       <c r="F68" t="n">
-        <v>7.312629217339893</v>
+        <v>7.322206781792179</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.36830984032836</v>
+        <v>-13.35903539430182</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.320658037917169</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.73368487952038</v>
+        <v>-13.73141638033413</v>
       </c>
       <c r="F69" t="n">
-        <v>7.380410408542802</v>
+        <v>7.389934193919552</v>
       </c>
       <c r="G69" t="n">
-        <v>-12.99315678740251</v>
+        <v>-12.98570594093733</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.392660132103127</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.65264959070127</v>
+        <v>-13.6493055100043</v>
       </c>
       <c r="F70" t="n">
-        <v>7.488760578727371</v>
+        <v>7.497595014135886</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.0337062103567</v>
+        <v>-13.02560512597822</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.450109419162533</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.95785562238217</v>
+        <v>-13.95476577004228</v>
       </c>
       <c r="F71" t="n">
-        <v>7.341919257479581</v>
+        <v>7.351100812375646</v>
       </c>
       <c r="G71" t="n">
-        <v>-12.87925759442399</v>
+        <v>-12.87388457587725</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.491343498543475</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.00881374095602</v>
+        <v>-14.00646212865303</v>
       </c>
       <c r="F72" t="n">
-        <v>7.431031185642839</v>
+        <v>7.440506080950921</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.13701092545461</v>
+        <v>-13.13148145868813</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.512344367227403</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.40301436463537</v>
+        <v>-14.40039385695471</v>
       </c>
       <c r="F73" t="n">
-        <v>7.55994940771652</v>
+        <v>7.568656728946495</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.07843084517524</v>
+        <v>-13.07322405286197</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.510568024789241</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.63705112335459</v>
+        <v>-14.63543286208164</v>
       </c>
       <c r="F74" t="n">
-        <v>7.403339850748633</v>
+        <v>7.412824524070448</v>
       </c>
       <c r="G74" t="n">
-        <v>-12.99283900195616</v>
+        <v>-12.98716286498367</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.485672617529146</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.16666257022689</v>
+        <v>-15.16336737959859</v>
       </c>
       <c r="F75" t="n">
-        <v>7.513899852037047</v>
+        <v>7.523115629981183</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.01747470755854</v>
+        <v>-13.01044920469079</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.434234640803353</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.36751275033349</v>
+        <v>-15.36495091073522</v>
       </c>
       <c r="F76" t="n">
-        <v>7.623540720034482</v>
+        <v>7.632018257941713</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.15868389289565</v>
+        <v>-13.15059747553777</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.354158612609325</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.89746642768647</v>
+        <v>-15.89365789133714</v>
       </c>
       <c r="F77" t="n">
-        <v>7.606414528979679</v>
+        <v>7.61555697182081</v>
       </c>
       <c r="G77" t="n">
-        <v>-12.88902094113722</v>
+        <v>-12.8807780755596</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.244082101761001</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.31070484410559</v>
+        <v>-16.30911102786697</v>
       </c>
       <c r="F78" t="n">
-        <v>7.688168501808231</v>
+        <v>7.697452725848502</v>
       </c>
       <c r="G78" t="n">
-        <v>-12.80511580528723</v>
+        <v>-12.79905343677225</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.099977240747493</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.28705671789032</v>
+        <v>-16.28491533288261</v>
       </c>
       <c r="F79" t="n">
-        <v>7.78746912028214</v>
+        <v>7.796318222711257</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.53470483547816</v>
+        <v>-12.52880869319666</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.920684571966115</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.05967136207575</v>
+        <v>-17.05596549487063</v>
       </c>
       <c r="F80" t="n">
-        <v>7.812363943248472</v>
+        <v>7.820929483279306</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.39267429698741</v>
+        <v>-12.38957466663379</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.70447132403644</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.94328601816763</v>
+        <v>-17.94008860767666</v>
       </c>
       <c r="F81" t="n">
-        <v>7.877773966120927</v>
+        <v>7.885655045190394</v>
       </c>
       <c r="G81" t="n">
-        <v>-11.94397591376256</v>
+        <v>-11.9400989313171</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.446995848402287</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.66507454696461</v>
+        <v>-18.66128556664276</v>
       </c>
       <c r="F82" t="n">
-        <v>7.911596115626244</v>
+        <v>7.91763892811375</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.91175735850959</v>
+        <v>-11.91082355819801</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.151451474172959</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.37271428988875</v>
+        <v>-19.36988355491281</v>
       </c>
       <c r="F83" t="n">
-        <v>8.065120709261107</v>
+        <v>8.071466640174362</v>
       </c>
       <c r="G83" t="n">
-        <v>-11.99213752040854</v>
+        <v>-11.99017213964804</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.817804151391435</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.39778258166108</v>
+        <v>-20.39667277710229</v>
       </c>
       <c r="F84" t="n">
-        <v>7.808648298029616</v>
+        <v>7.815962252302521</v>
       </c>
       <c r="G84" t="n">
-        <v>-11.82103694708712</v>
+        <v>-11.82180452116522</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.448599581265003</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.42329088405142</v>
+        <v>-21.4229242085364</v>
       </c>
       <c r="F85" t="n">
-        <v>8.264685080561708</v>
+        <v>8.271441688051786</v>
       </c>
       <c r="G85" t="n">
-        <v>-11.97024454765849</v>
+        <v>-11.97018099056922</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.053261283332532</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.43331081268738</v>
+        <v>-22.43138943298868</v>
       </c>
       <c r="F86" t="n">
-        <v>8.233468771716456</v>
+        <v>8.239570252286367</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.53830567997343</v>
+        <v>-11.53749410483352</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.637792408114753</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.2988019203236</v>
+        <v>-23.29731077322919</v>
       </c>
       <c r="F87" t="n">
-        <v>8.337780622228953</v>
+        <v>8.34618482503318</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.39465199120286</v>
+        <v>-11.39356174267154</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.215618276373715</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.54756672129162</v>
+        <v>-24.54700448550192</v>
       </c>
       <c r="F88" t="n">
-        <v>8.368498252373781</v>
+        <v>8.378031815764265</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.51697983201994</v>
+        <v>-11.51506334132811</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.8009849287542345</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.93031475544744</v>
+        <v>-25.93032453346117</v>
       </c>
       <c r="F89" t="n">
-        <v>8.295544491905675</v>
+        <v>8.303577130188017</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.0152455023028</v>
+        <v>-11.0141063637028</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4059513252423381</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.42884425022554</v>
+        <v>-27.43150875896801</v>
       </c>
       <c r="F90" t="n">
-        <v>8.341276262138798</v>
+        <v>8.349382235524143</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.16900965727414</v>
+        <v>-11.17038835721061</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04927555335823657</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.15614993233406</v>
+        <v>-29.1603324777087</v>
       </c>
       <c r="F91" t="n">
-        <v>8.471646519251951</v>
+        <v>8.479424929177213</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.84214532517281</v>
+        <v>-10.84376358644576</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2548788119847223</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.02073159375525</v>
+        <v>-31.02406834094192</v>
       </c>
       <c r="F92" t="n">
-        <v>8.498643615171057</v>
+        <v>8.507541607668841</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.81251305455243</v>
+        <v>-10.81481088777988</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.4909530372029901</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.59832366308166</v>
+        <v>-32.60343023075416</v>
       </c>
       <c r="F93" t="n">
-        <v>8.384201742430312</v>
+        <v>8.394229095514353</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.97143022276151</v>
+        <v>-10.97082398591001</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.6443768964003376</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.64600840968255</v>
+        <v>-34.6548672901254</v>
       </c>
       <c r="F94" t="n">
-        <v>8.301406411139107</v>
+        <v>8.310240846547622</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.26842036934034</v>
+        <v>-10.26727145272661</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.7068231113439909</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.92236178546278</v>
+        <v>-36.93096888205199</v>
       </c>
       <c r="F95" t="n">
-        <v>8.105450126906289</v>
+        <v>8.114299229335405</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.791600418616989</v>
+        <v>-9.788202558844482</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.6642695365364213</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.76408978428459</v>
+        <v>-38.77410980385832</v>
       </c>
       <c r="F96" t="n">
-        <v>7.850131521295389</v>
+        <v>7.857636146836104</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.277457789471612</v>
+        <v>-9.272823010961776</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.5225179916943882</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.39384257693633</v>
+        <v>-41.40314391250064</v>
       </c>
       <c r="F97" t="n">
-        <v>7.589703903508564</v>
+        <v>7.596851631547993</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.861339748007879</v>
+        <v>-8.856734303539247</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2663314541377569</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.33198668018056</v>
+        <v>-43.34386452236372</v>
       </c>
       <c r="F98" t="n">
-        <v>7.305100146764844</v>
+        <v>7.31217453970127</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.336421747727822</v>
+        <v>-8.332231868842877</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07646421981092855</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.92102626814807</v>
+        <v>-45.93399435886256</v>
       </c>
       <c r="F99" t="n">
-        <v>6.955839274206173</v>
+        <v>6.96088472929283</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.082745848424207</v>
+        <v>-8.080306233997616</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5361467686954131</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.21412204794406</v>
+        <v>-48.22524698306972</v>
       </c>
       <c r="F100" t="n">
-        <v>6.361252926072579</v>
+        <v>6.366655278660519</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.67592180901448</v>
+        <v>-7.673139964107206</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.041961658812011</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.32015220249471</v>
+        <v>-50.33233316310363</v>
       </c>
       <c r="F101" t="n">
-        <v>6.048776941180576</v>
+        <v>6.055557993704988</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.420432088163238</v>
+        <v>-7.418515597471408</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.684005035984899</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.31388064706061</v>
+        <v>-52.32568270963734</v>
       </c>
       <c r="F102" t="n">
-        <v>5.642251131189732</v>
+        <v>5.649951317005123</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.253726732015172</v>
+        <v>-7.252582704408314</v>
       </c>
     </row>
   </sheetData>
